--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,76 +52,88 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>bit</t>
   </si>
   <si>
     <t>thought</t>
@@ -130,54 +142,51 @@
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>would</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -190,54 +199,60 @@
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -247,58 +262,64 @@
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>grandson</t>
+    <t>nice</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -659,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,16 +770,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K6">
-        <v>0.8494623655913979</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.704225352112676</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6881720430107527</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.6376811594202898</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6824324324324325</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.6226415094339622</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6067961165048543</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.5652797704447633</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L10">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M10">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6050420168067226</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.5414937759336099</v>
+        <v>0.516597510373444</v>
       </c>
       <c r="L11">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M11">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.4614754098360656</v>
+        <v>0.4713114754098361</v>
       </c>
       <c r="L12">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="M12">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1220,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5789473684210527</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.3944954128440367</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L13">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1270,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>198</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5777777777777777</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.3650793650793651</v>
+        <v>0.3700305810397553</v>
       </c>
       <c r="L14">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>120</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1346,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.3614457831325301</v>
+        <v>0.35</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5476190476190477</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1396,31 +1417,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.319327731092437</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5370370370370371</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.25</v>
+        <v>0.2528735632183908</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1470,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.527536231884058</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C18">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,31 +1517,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.2324324324324324</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1546,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.224</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4566929133858268</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,19 +1617,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K20">
-        <v>0.2167832167832168</v>
+        <v>0.2265625</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1620,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,28 +1649,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4421052631578947</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K21">
         <v>0.2142857142857143</v>
@@ -1678,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4407582938388626</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C22">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,31 +1717,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>0.2096774193548387</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L22">
         <v>52</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1728,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4337349397590362</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K23">
-        <v>0.187719298245614</v>
+        <v>0.1956140350877193</v>
       </c>
       <c r="L23">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M23">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1770,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1778,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4333333333333333</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,19 +1817,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K24">
-        <v>0.1283422459893048</v>
+        <v>0.184</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1820,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>326</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.4140625</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1846,31 +1867,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K25">
-        <v>0.115009746588694</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="L25">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1362</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1878,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.421875</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,28 +1920,28 @@
         <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>0.1089385474860335</v>
+        <v>0.1143599740090968</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>319</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4140625</v>
+        <v>0.4075829383886256</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1946,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>0.0933852140077821</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1970,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>233</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4126984126984127</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,31 +2017,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K28">
-        <v>0.07739938080495357</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2028,13 +2049,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3707865168539326</v>
+        <v>0.390625</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2046,31 +2067,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K29">
-        <v>0.07348242811501597</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,13 +2099,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3283582089552239</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2096,31 +2117,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K30">
-        <v>0.05725699067909454</v>
+        <v>0.05733333333333333</v>
       </c>
       <c r="L30">
         <v>43</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2128,13 +2149,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2871287128712871</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2146,7 +2167,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>144</v>
+        <v>40</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>0.04627766599597585</v>
+      </c>
+      <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>0.88</v>
+      </c>
+      <c r="O31">
+        <v>0.12</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2199,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.264957264957265</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,7 +2217,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32">
+        <v>0.03840682788051209</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>0.93</v>
+      </c>
+      <c r="O32">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2180,13 +2249,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2551020408163265</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2198,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2206,13 +2275,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2525773195876289</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C34">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2224,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>145</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2232,13 +2301,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2310126582278481</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C35">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2250,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>243</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2258,25 +2327,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2113095238095238</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C36">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>530</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2284,13 +2353,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2101910828025478</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2302,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2310,25 +2379,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2010050251256282</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2336,13 +2405,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2354,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2362,25 +2431,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1930379746835443</v>
+        <v>0.2065378900445765</v>
       </c>
       <c r="C40">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="D40">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>255</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2388,25 +2457,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1884057971014493</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="C41">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2414,13 +2483,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1864406779661017</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2432,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>96</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2440,25 +2509,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1729106628242075</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D43">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2466,25 +2535,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1675392670157068</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>159</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2492,13 +2561,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1635514018691589</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2510,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2518,25 +2587,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1438053097345133</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C46">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>387</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2544,13 +2613,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1428571428571428</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2562,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2570,13 +2639,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1311475409836066</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2588,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2596,25 +2665,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1255060728744939</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>216</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2622,7 +2691,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1197916666666667</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C50">
         <v>23</v>
@@ -2640,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2648,25 +2717,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1165413533834586</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>235</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2674,25 +2743,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1153846153846154</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C52">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F52">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>322</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2700,13 +2769,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09295774647887324</v>
+        <v>0.125</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2718,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>322</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2726,25 +2795,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.08928571428571429</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F54">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>408</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2752,25 +2821,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0859504132231405</v>
+        <v>0.1178082191780822</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D55">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>553</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2778,25 +2847,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.07885304659498207</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E56">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F56">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>257</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2804,25 +2873,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.05874840357598978</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="C57">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D57">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E57">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>737</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2830,25 +2899,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.05868544600938967</v>
+        <v>0.09375</v>
       </c>
       <c r="C58">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F58">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>401</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2856,25 +2925,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05521472392638037</v>
+        <v>0.07942238267148015</v>
       </c>
       <c r="C59">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E59">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F59">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>616</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2882,25 +2951,155 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.05373831775700934</v>
+        <v>0.07278481012658228</v>
       </c>
       <c r="C60">
         <v>23</v>
       </c>
       <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>0.04</v>
+      </c>
+      <c r="F60">
+        <v>0.96</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.06775700934579439</v>
+      </c>
+      <c r="C61">
         <v>29</v>
       </c>
-      <c r="E60">
-        <v>0.21</v>
-      </c>
-      <c r="F60">
-        <v>0.79</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
+      <c r="D61">
+        <v>35</v>
+      </c>
+      <c r="E61">
+        <v>0.17</v>
+      </c>
+      <c r="F61">
+        <v>0.83</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.05373831775700934</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>0.04</v>
+      </c>
+      <c r="F62">
+        <v>0.96</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.04900459418070444</v>
+      </c>
+      <c r="C63">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>34</v>
+      </c>
+      <c r="E63">
+        <v>0.06</v>
+      </c>
+      <c r="F63">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.0489060489060489</v>
+      </c>
+      <c r="C64">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>55</v>
+      </c>
+      <c r="E64">
+        <v>0.31</v>
+      </c>
+      <c r="F64">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.04590818363273453</v>
+      </c>
+      <c r="C65">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>0.12</v>
+      </c>
+      <c r="F65">
+        <v>0.88</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
